--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/heatmap_global_data_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/heatmap_global_data_Lineal_Estacionario_ARMA.xlsx
@@ -444,31 +444,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.9499224683170859</v>
+        <v>0.907210222142919</v>
       </c>
       <c r="C2">
-        <v>0.5471930303679644</v>
+        <v>0.5484291154288146</v>
       </c>
       <c r="D2">
-        <v>0.7387023721458145</v>
+        <v>0.7627165921351441</v>
       </c>
       <c r="E2">
-        <v>1.037248148680896</v>
+        <v>0.7686841038114228</v>
       </c>
       <c r="F2">
-        <v>0.9822850645938771</v>
+        <v>0.9242434926832449</v>
       </c>
       <c r="G2">
-        <v>0.7042596075429847</v>
+        <v>0.7277521190400923</v>
       </c>
       <c r="H2">
-        <v>0.6968925570908137</v>
+        <v>0.7098847989387026</v>
       </c>
       <c r="I2">
-        <v>0.5783829906541</v>
+        <v>0.5734109224053914</v>
       </c>
       <c r="J2">
-        <v>1.101937960109198</v>
+        <v>0.859271558156681</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -476,31 +476,31 @@
         <v>20</v>
       </c>
       <c r="B3">
-        <v>0.946653545597769</v>
+        <v>0.8548487170623995</v>
       </c>
       <c r="C3">
-        <v>0.548241150447542</v>
+        <v>0.5449775863837693</v>
       </c>
       <c r="D3">
-        <v>0.7147028466257251</v>
+        <v>0.7590104790790922</v>
       </c>
       <c r="E3">
-        <v>1.054448770626301</v>
+        <v>0.7704719163144619</v>
       </c>
       <c r="F3">
-        <v>0.9701992056259898</v>
+        <v>0.8807377634720995</v>
       </c>
       <c r="G3">
-        <v>0.7196842807029419</v>
+        <v>0.7195530138050085</v>
       </c>
       <c r="H3">
-        <v>0.7043433626341645</v>
+        <v>0.7298520223723688</v>
       </c>
       <c r="I3">
-        <v>0.5780712454767739</v>
+        <v>0.5689607730355942</v>
       </c>
       <c r="J3">
-        <v>1.105098924108501</v>
+        <v>0.8454139596387297</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -508,31 +508,31 @@
         <v>30</v>
       </c>
       <c r="B4">
-        <v>0.901649210121425</v>
+        <v>0.9049089908192756</v>
       </c>
       <c r="C4">
-        <v>0.5443559566891729</v>
+        <v>0.5470265175823418</v>
       </c>
       <c r="D4">
-        <v>0.7162379957586388</v>
+        <v>0.7588713370947083</v>
       </c>
       <c r="E4">
-        <v>0.9166687430696711</v>
+        <v>0.767009095795083</v>
       </c>
       <c r="F4">
-        <v>0.9314596835305174</v>
+        <v>0.9382087515359209</v>
       </c>
       <c r="G4">
-        <v>0.6855824995996065</v>
+        <v>0.725594723202131</v>
       </c>
       <c r="H4">
-        <v>0.7088885641266924</v>
+        <v>0.7101060143950404</v>
       </c>
       <c r="I4">
-        <v>0.5863127492277844</v>
+        <v>0.5765090202033768</v>
       </c>
       <c r="J4">
-        <v>1.107034227071176</v>
+        <v>0.8417150343062385</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -540,31 +540,31 @@
         <v>40</v>
       </c>
       <c r="B5">
-        <v>0.9559532634470478</v>
+        <v>0.8942725799144582</v>
       </c>
       <c r="C5">
-        <v>0.5464135857990907</v>
+        <v>0.5486678588830807</v>
       </c>
       <c r="D5">
-        <v>0.7196613918393555</v>
+        <v>0.7625433183372601</v>
       </c>
       <c r="E5">
-        <v>1.076995155575413</v>
+        <v>0.7760342464003689</v>
       </c>
       <c r="F5">
-        <v>0.9604152130268674</v>
+        <v>0.9275089090905068</v>
       </c>
       <c r="G5">
-        <v>0.7059666671819314</v>
+        <v>0.7441800230032642</v>
       </c>
       <c r="H5">
-        <v>0.6985225186644016</v>
+        <v>0.7246483305922792</v>
       </c>
       <c r="I5">
-        <v>0.574004851152303</v>
+        <v>0.5797743837610607</v>
       </c>
       <c r="J5">
-        <v>1.15301740025674</v>
+        <v>0.8550688176140749</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -572,31 +572,31 @@
         <v>50</v>
       </c>
       <c r="B6">
-        <v>1.02468787565879</v>
+        <v>0.8811661466316971</v>
       </c>
       <c r="C6">
-        <v>0.5460805415511361</v>
+        <v>0.5447937599161985</v>
       </c>
       <c r="D6">
-        <v>0.7408776262190067</v>
+        <v>0.7720738198247329</v>
       </c>
       <c r="E6">
-        <v>1.189440126594161</v>
+        <v>0.7836851223523358</v>
       </c>
       <c r="F6">
-        <v>1.036521441258903</v>
+        <v>0.9422927017414917</v>
       </c>
       <c r="G6">
-        <v>0.7458570662269725</v>
+        <v>0.7288809891666385</v>
       </c>
       <c r="H6">
-        <v>0.7500291493698359</v>
+        <v>0.7178601808777606</v>
       </c>
       <c r="I6">
-        <v>0.5794887911213552</v>
+        <v>0.5761422966930957</v>
       </c>
       <c r="J6">
-        <v>1.078429708425278</v>
+        <v>0.8488930071618396</v>
       </c>
     </row>
   </sheetData>
